--- a/Mesures.xlsx
+++ b/Mesures.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23715" windowHeight="9780"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="23715" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Precision" sheetId="1" r:id="rId1"/>
+    <sheet name="Speed" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Mini test de précision</t>
   </si>
@@ -58,16 +58,64 @@
   </si>
   <si>
     <t>Distance Moved In Rest (P)</t>
+  </si>
+  <si>
+    <t>Core i7</t>
+  </si>
+  <si>
+    <t>Radeon HD 4650</t>
+  </si>
+  <si>
+    <t>PC 1 (Karim)</t>
+  </si>
+  <si>
+    <t>PC 2 (Kevin)</t>
+  </si>
+  <si>
+    <t>Radeon HD 4530</t>
+  </si>
+  <si>
+    <t>PC1 Normal</t>
+  </si>
+  <si>
+    <t>PC1 Eco</t>
+  </si>
+  <si>
+    <t>Proc Time (ms)</t>
+  </si>
+  <si>
+    <t>Render Time (ms)</t>
+  </si>
+  <si>
+    <t>PC2 Normal</t>
+  </si>
+  <si>
+    <t>PC2 Eco</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Max FPS</t>
+  </si>
+  <si>
+    <t>Processing &amp; Rendering Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,10 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,7 +186,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$6:$A$11</c:f>
+              <c:f>Precision!$A$6:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -164,7 +213,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$6:$B$11</c:f>
+              <c:f>Precision!$B$6:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -201,7 +250,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$15:$B$20</c:f>
+              <c:f>Precision!$B$15:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -238,7 +287,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$24:$B$29</c:f>
+              <c:f>Precision!$B$24:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -265,25 +314,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="185699712"/>
-        <c:axId val="199230976"/>
+        <c:axId val="112322816"/>
+        <c:axId val="113188864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185699712"/>
+        <c:axId val="112322816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199230976"/>
+        <c:crossAx val="113188864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199230976"/>
+        <c:axId val="113188864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -291,7 +340,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185699712"/>
+        <c:crossAx val="112322816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -304,7 +353,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -329,7 +378,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$6:$A$11</c:f>
+              <c:f>Precision!$A$6:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -356,7 +405,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$6:$C$11</c:f>
+              <c:f>Precision!$C$6:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -393,7 +442,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$6:$A$11</c:f>
+              <c:f>Precision!$A$6:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -420,7 +469,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$15:$C$20</c:f>
+              <c:f>Precision!$C$15:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -457,7 +506,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$6:$A$11</c:f>
+              <c:f>Precision!$A$6:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -484,7 +533,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$24:$C$29</c:f>
+              <c:f>Precision!$C$24:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -511,25 +560,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="207383936"/>
-        <c:axId val="207725312"/>
+        <c:axId val="113226496"/>
+        <c:axId val="113228032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="207383936"/>
+        <c:axId val="113226496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207725312"/>
+        <c:crossAx val="113228032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207725312"/>
+        <c:axId val="113228032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +586,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207383936"/>
+        <c:crossAx val="113226496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -550,7 +599,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -575,7 +624,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$6:$A$11</c:f>
+              <c:f>Precision!$A$6:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -602,7 +651,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$6:$D$11</c:f>
+              <c:f>Precision!$D$6:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -639,7 +688,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$15:$D$20</c:f>
+              <c:f>Precision!$D$15:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -676,7 +725,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$24:$D$29</c:f>
+              <c:f>Precision!$D$24:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -703,25 +752,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="206987264"/>
-        <c:axId val="206988800"/>
+        <c:axId val="113646592"/>
+        <c:axId val="113652480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206987264"/>
+        <c:axId val="113646592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206988800"/>
+        <c:crossAx val="113652480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206988800"/>
+        <c:axId val="113652480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,7 +778,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206987264"/>
+        <c:crossAx val="113646592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -742,7 +791,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -767,7 +816,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$15:$A$20</c:f>
+              <c:f>Precision!$A$15:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -794,7 +843,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$6:$F$11</c:f>
+              <c:f>Precision!$F$6:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -831,7 +880,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$15:$F$20</c:f>
+              <c:f>Precision!$F$15:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -868,7 +917,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$24:$F$29</c:f>
+              <c:f>Precision!$F$24:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -895,25 +944,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="210732160"/>
-        <c:axId val="210757504"/>
+        <c:axId val="113690112"/>
+        <c:axId val="113691648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210732160"/>
+        <c:axId val="113690112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210757504"/>
+        <c:crossAx val="113691648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210757504"/>
+        <c:axId val="113691648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +970,137 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210732160"/>
+        <c:crossAx val="113690112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Processing Time</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed!$A$8:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>PC1 Normal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PC1 Eco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PC2 Normal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PC2 Eco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed!$B$8:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rendering Time</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed!$C$8:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="101365248"/>
+        <c:axId val="101366784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="101365248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101366784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101366784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101365248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1057,6 +1236,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1352,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1444,7 +1658,7 @@
         <v>313.85000000000002</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F29" si="0">MAX(0,E7-SQRT(2*A7*A7)*10*0.5)</f>
+        <f t="shared" ref="F7:F28" si="0">MAX(0,E7-SQRT(2*A7*A7)*10*0.5)</f>
         <v>87.575830020304807</v>
       </c>
     </row>
@@ -1869,13 +2083,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A4:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>C8+B8</f>
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <f>(1/D8)*1000</f>
+        <v>47.619047619047613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D11" si="0">C9+B9</f>
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E11" si="1">(1/D9)*1000</f>
+        <v>12.195121951219512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" t="e">
+        <f>(1/D11)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Mesures.xlsx
+++ b/Mesures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23715" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Precision" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Mini test de précision</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Distance Moved In Rest (P)</t>
   </si>
   <si>
-    <t>Core i7</t>
-  </si>
-  <si>
     <t>Radeon HD 4650</t>
   </si>
   <si>
@@ -100,6 +97,12 @@
   </si>
   <si>
     <t>Processing &amp; Rendering Time</t>
+  </si>
+  <si>
+    <t>Core i7 2 Ghz</t>
+  </si>
+  <si>
+    <t>Core 2 Duo 2,13 Ghz</t>
   </si>
 </sst>
 </file>
@@ -314,25 +317,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="112322816"/>
-        <c:axId val="113188864"/>
+        <c:axId val="83529728"/>
+        <c:axId val="83531264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112322816"/>
+        <c:axId val="83529728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113188864"/>
+        <c:crossAx val="83531264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113188864"/>
+        <c:axId val="83531264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -340,7 +343,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112322816"/>
+        <c:crossAx val="83529728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -353,7 +356,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -560,25 +563,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113226496"/>
-        <c:axId val="113228032"/>
+        <c:axId val="83552512"/>
+        <c:axId val="83431424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113226496"/>
+        <c:axId val="83552512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113228032"/>
+        <c:crossAx val="83431424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113228032"/>
+        <c:axId val="83431424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +589,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113226496"/>
+        <c:crossAx val="83552512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -599,7 +602,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -752,25 +755,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113646592"/>
-        <c:axId val="113652480"/>
+        <c:axId val="83460864"/>
+        <c:axId val="83462400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113646592"/>
+        <c:axId val="83460864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113652480"/>
+        <c:crossAx val="83462400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113652480"/>
+        <c:axId val="83462400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +781,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113646592"/>
+        <c:crossAx val="83460864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -791,7 +794,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -944,25 +947,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113690112"/>
-        <c:axId val="113691648"/>
+        <c:axId val="83487744"/>
+        <c:axId val="83694336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113690112"/>
+        <c:axId val="83487744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113691648"/>
+        <c:crossAx val="83694336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113691648"/>
+        <c:axId val="83694336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +973,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113690112"/>
+        <c:crossAx val="83487744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -983,7 +986,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1040,7 +1043,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,31 +1071,31 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="101365248"/>
-        <c:axId val="101366784"/>
+        <c:axId val="83731584"/>
+        <c:axId val="83733120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101365248"/>
+        <c:axId val="83731584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101366784"/>
+        <c:crossAx val="83733120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101366784"/>
+        <c:axId val="83733120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1103,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101365248"/>
+        <c:crossAx val="83731584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1113,7 +1116,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1566,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -2085,56 +2088,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -2153,7 +2159,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>30</v>
@@ -2166,13 +2172,13 @@
         <v>82</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E11" si="1">(1/D9)*1000</f>
+        <f t="shared" ref="E9:E10" si="1">(1/D9)*1000</f>
         <v>12.195121951219512</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -2191,21 +2197,21 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" t="e">
+        <v>90</v>
+      </c>
+      <c r="E11">
         <f>(1/D11)*1000</f>
-        <v>#DIV/0!</v>
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="12" spans="1:7">

--- a/Mesures.xlsx
+++ b/Mesures.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="9780"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Precision" sheetId="1" r:id="rId1"/>
     <sheet name="Speed" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Keyboard" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Mini test de précision</t>
   </si>
@@ -103,6 +103,33 @@
   </si>
   <si>
     <t>Core 2 Duo 2,13 Ghz</t>
+  </si>
+  <si>
+    <t>establishment</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>T9 KB</t>
+  </si>
+  <si>
+    <t>Circular KB</t>
+  </si>
+  <si>
+    <t>nb clicks</t>
+  </si>
+  <si>
+    <t>time (s)</t>
   </si>
 </sst>
 </file>
@@ -317,25 +344,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83529728"/>
-        <c:axId val="83531264"/>
+        <c:axId val="86282240"/>
+        <c:axId val="86283776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83529728"/>
+        <c:axId val="86282240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83531264"/>
+        <c:crossAx val="86283776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83531264"/>
+        <c:axId val="86283776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -343,7 +370,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83529728"/>
+        <c:crossAx val="86282240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -356,7 +383,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -563,25 +590,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83552512"/>
-        <c:axId val="83431424"/>
+        <c:axId val="86309120"/>
+        <c:axId val="86515712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83552512"/>
+        <c:axId val="86309120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83431424"/>
+        <c:crossAx val="86515712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83431424"/>
+        <c:axId val="86515712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +616,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83552512"/>
+        <c:crossAx val="86309120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -602,7 +629,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -755,25 +782,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83460864"/>
-        <c:axId val="83462400"/>
+        <c:axId val="86541056"/>
+        <c:axId val="86542592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83460864"/>
+        <c:axId val="86541056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83462400"/>
+        <c:crossAx val="86542592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83462400"/>
+        <c:axId val="86542592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +808,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83460864"/>
+        <c:crossAx val="86541056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -794,7 +821,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -947,25 +974,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83487744"/>
-        <c:axId val="83694336"/>
+        <c:axId val="86572032"/>
+        <c:axId val="88412928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83487744"/>
+        <c:axId val="86572032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83694336"/>
+        <c:crossAx val="88412928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83694336"/>
+        <c:axId val="88412928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,7 +1000,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83487744"/>
+        <c:crossAx val="86572032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -986,7 +1013,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1078,24 +1105,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="83731584"/>
-        <c:axId val="83733120"/>
+        <c:axId val="88454272"/>
+        <c:axId val="88455808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83731584"/>
+        <c:axId val="88454272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83733120"/>
+        <c:crossAx val="88455808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83733120"/>
+        <c:axId val="88455808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1130,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83731584"/>
+        <c:crossAx val="88454272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1116,9 +1143,288 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Circular Keyboard</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Keyboard!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>zero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>apple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>morning</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>establishment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Keyboard!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>T9 Keyboard</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Keyboard!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50762880"/>
+        <c:axId val="51880704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50762880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51880704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51880704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50762880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Circular Keyboard</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Keyboard!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>zero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>apple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>morning</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>establishment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Keyboard!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>T9 Keyboard</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Keyboard!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50112768"/>
+        <c:axId val="50139136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50112768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50139136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50139136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50112768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1280,6 +1586,251 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73542</cdr:x>
+      <cdr:y>0.05208</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93542</cdr:x>
+      <cdr:y>0.38542</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3362325" y="142875"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>By time</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69583</cdr:x>
+      <cdr:y>0.06597</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9793</cdr:x>
+      <cdr:y>0.2252</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="ZoneTexte 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3181350" y="180975"/>
+          <a:ext cx="1295996" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>By number of clicks</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1569,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -2232,12 +2783,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>20.2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>25.88</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>22.11</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>53.64</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>14.54</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>15.42</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>17.86</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>17.48</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mesures.xlsx
+++ b/Mesures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Precision" sheetId="1" r:id="rId1"/>
@@ -344,25 +344,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86282240"/>
-        <c:axId val="86283776"/>
+        <c:axId val="88051712"/>
+        <c:axId val="88053248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86282240"/>
+        <c:axId val="88051712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86283776"/>
+        <c:crossAx val="88053248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86283776"/>
+        <c:axId val="88053248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +370,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86282240"/>
+        <c:crossAx val="88051712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -383,7 +383,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -590,25 +590,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86309120"/>
-        <c:axId val="86515712"/>
+        <c:axId val="88078592"/>
+        <c:axId val="90779648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86309120"/>
+        <c:axId val="88078592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86515712"/>
+        <c:crossAx val="90779648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86515712"/>
+        <c:axId val="90779648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +616,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86309120"/>
+        <c:crossAx val="88078592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -629,7 +629,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -782,25 +782,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86541056"/>
-        <c:axId val="86542592"/>
+        <c:axId val="90809088"/>
+        <c:axId val="90810624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86541056"/>
+        <c:axId val="90809088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86542592"/>
+        <c:crossAx val="90810624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86542592"/>
+        <c:axId val="90810624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,20 +808,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86541056"/>
+        <c:crossAx val="90809088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -974,25 +973,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86572032"/>
-        <c:axId val="88412928"/>
+        <c:axId val="91032576"/>
+        <c:axId val="91038464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86572032"/>
+        <c:axId val="91032576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88412928"/>
+        <c:crossAx val="91038464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88412928"/>
+        <c:axId val="91038464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,20 +999,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86572032"/>
+        <c:crossAx val="91032576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1105,24 +1103,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="88454272"/>
-        <c:axId val="88455808"/>
+        <c:axId val="91083904"/>
+        <c:axId val="91085440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88454272"/>
+        <c:axId val="91083904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88455808"/>
+        <c:crossAx val="91085440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88455808"/>
+        <c:axId val="91085440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1128,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88454272"/>
+        <c:crossAx val="91083904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1143,7 +1141,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1243,24 +1241,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50762880"/>
-        <c:axId val="51880704"/>
+        <c:axId val="91474944"/>
+        <c:axId val="91484928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50762880"/>
+        <c:axId val="91474944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51880704"/>
+        <c:crossAx val="91484928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51880704"/>
+        <c:axId val="91484928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1266,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50762880"/>
+        <c:crossAx val="91474944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1281,7 +1279,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1382,25 +1380,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50112768"/>
-        <c:axId val="50139136"/>
+        <c:axId val="91796608"/>
+        <c:axId val="91798144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50112768"/>
+        <c:axId val="91796608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50139136"/>
+        <c:crossAx val="91798144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50139136"/>
+        <c:axId val="91798144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1406,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50112768"/>
+        <c:crossAx val="91796608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1421,7 +1419,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2120,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2785,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Mesures.xlsx
+++ b/Mesures.xlsx
@@ -344,25 +344,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="88051712"/>
-        <c:axId val="88053248"/>
+        <c:axId val="97624064"/>
+        <c:axId val="97625600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88051712"/>
+        <c:axId val="97624064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88053248"/>
+        <c:crossAx val="97625600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88053248"/>
+        <c:axId val="97625600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +370,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88051712"/>
+        <c:crossAx val="97624064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -383,7 +383,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -590,25 +590,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="88078592"/>
-        <c:axId val="90779648"/>
+        <c:axId val="97650944"/>
+        <c:axId val="97660928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88078592"/>
+        <c:axId val="97650944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90779648"/>
+        <c:crossAx val="97660928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90779648"/>
+        <c:axId val="97660928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +616,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88078592"/>
+        <c:crossAx val="97650944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -629,7 +629,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -782,25 +782,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90809088"/>
-        <c:axId val="90810624"/>
+        <c:axId val="97690368"/>
+        <c:axId val="97691904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90809088"/>
+        <c:axId val="97690368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90810624"/>
+        <c:crossAx val="97691904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90810624"/>
+        <c:axId val="97691904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,19 +808,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90809088"/>
+        <c:crossAx val="97690368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -877,22 +878,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>123.14437251522864</c:v>
+                  <c:v>7.3900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.575830020304807</c:v>
+                  <c:v>4.3100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.411660040609547</c:v>
+                  <c:v>2.831</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144.50311754568577</c:v>
+                  <c:v>5.4539999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>379.04176130837618</c:v>
+                  <c:v>6.7319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>287.57332008121921</c:v>
+                  <c:v>3.9630000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,22 +915,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>122.4943725152286</c:v>
+                  <c:v>48.838999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>437.35583002030478</c:v>
+                  <c:v>49.285000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>344.77166004060962</c:v>
+                  <c:v>37.530999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>460.08311754568581</c:v>
+                  <c:v>49.551000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139.54176130837629</c:v>
+                  <c:v>44.338000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>209.46332008121908</c:v>
+                  <c:v>57.416999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,25 +974,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91032576"/>
-        <c:axId val="91038464"/>
+        <c:axId val="98372608"/>
+        <c:axId val="98378496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91032576"/>
+        <c:axId val="98372608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91038464"/>
+        <c:crossAx val="98378496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91038464"/>
+        <c:axId val="98378496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,19 +1000,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91032576"/>
+        <c:crossAx val="98372608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1103,24 +1105,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="91083904"/>
-        <c:axId val="91085440"/>
+        <c:axId val="98423936"/>
+        <c:axId val="98425472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91083904"/>
+        <c:axId val="98423936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91085440"/>
+        <c:crossAx val="98425472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91085440"/>
+        <c:axId val="98425472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,20 +1130,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91083904"/>
+        <c:crossAx val="98423936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1153,8 +1154,9 @@
   <c:chart>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1240,25 +1242,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="91474944"/>
-        <c:axId val="91484928"/>
-      </c:lineChart>
+        <c:axId val="98552832"/>
+        <c:axId val="98562816"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="91474944"/>
+        <c:axId val="98552832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91484928"/>
+        <c:crossAx val="98562816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91484928"/>
+        <c:axId val="98562816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1267,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91474944"/>
+        <c:crossAx val="98552832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1279,7 +1280,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1292,8 +1293,9 @@
   <c:chart>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1379,26 +1381,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="91796608"/>
-        <c:axId val="91798144"/>
-      </c:lineChart>
+        <c:axId val="98612352"/>
+        <c:axId val="98613888"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="91796608"/>
+        <c:axId val="98612352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91798144"/>
+        <c:crossAx val="98613888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91798144"/>
+        <c:axId val="98613888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1407,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91796608"/>
+        <c:crossAx val="98612352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1419,7 +1420,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2118,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2186,11 +2187,11 @@
         <v>99.88</v>
       </c>
       <c r="E6">
-        <v>292.85000000000002</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="F6">
-        <f>MAX(0,E6-SQRT(2*A6*A6)*10*0.5)</f>
-        <v>123.14437251522864</v>
+        <f>E6/10</f>
+        <v>7.3900000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2207,11 +2208,11 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>313.85000000000002</v>
+        <v>43.1</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F28" si="0">MAX(0,E7-SQRT(2*A7*A7)*10*0.5)</f>
-        <v>87.575830020304807</v>
+        <f>E7/10</f>
+        <v>4.3100000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2228,11 +2229,11 @@
         <v>100</v>
       </c>
       <c r="E8">
-        <v>473.96</v>
+        <v>28.31</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>21.411660040609547</v>
+        <f>E8/10</f>
+        <v>2.831</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2249,11 +2250,11 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>653.62</v>
+        <v>54.54</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>144.50311754568577</v>
+        <f t="shared" ref="F9:F11" si="0">E9/10</f>
+        <v>5.4539999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2270,11 +2271,11 @@
         <v>100</v>
       </c>
       <c r="E10">
-        <v>1029.58</v>
+        <v>67.319999999999993</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>379.04176130837618</v>
+        <v>6.7319999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2291,11 +2292,11 @@
         <v>100</v>
       </c>
       <c r="E11">
-        <v>1192.67</v>
+        <v>39.630000000000003</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>287.57332008121921</v>
+        <v>3.9630000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2346,11 +2347,11 @@
         <v>74.86</v>
       </c>
       <c r="E15">
-        <v>292.2</v>
+        <v>488.39</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>122.4943725152286</v>
+        <f t="shared" ref="F15:F19" si="1">E15/10</f>
+        <v>48.838999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2367,11 +2368,11 @@
         <v>94.91</v>
       </c>
       <c r="E16">
-        <v>663.63</v>
+        <v>492.85</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>437.35583002030478</v>
+        <f t="shared" si="1"/>
+        <v>49.285000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2388,11 +2389,11 @@
         <v>95.34</v>
       </c>
       <c r="E17">
-        <v>797.32</v>
+        <v>375.31</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>344.77166004060962</v>
+        <f t="shared" si="1"/>
+        <v>37.530999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2409,11 +2410,11 @@
         <v>94.5</v>
       </c>
       <c r="E18">
-        <v>969.2</v>
+        <v>495.51</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>460.08311754568581</v>
+        <f t="shared" si="1"/>
+        <v>49.551000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2430,11 +2431,11 @@
         <v>100</v>
       </c>
       <c r="E19">
-        <v>790.08</v>
+        <v>443.38</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>139.54176130837629</v>
+        <f t="shared" si="1"/>
+        <v>44.338000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2451,11 +2452,11 @@
         <v>100</v>
       </c>
       <c r="E20">
-        <v>1114.56</v>
+        <v>574.16999999999996</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>209.46332008121908</v>
+        <f>E20/10</f>
+        <v>57.416999999999994</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -2512,7 +2513,7 @@
         <v>832.22</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F7:F28" si="2">MAX(0,E24-SQRT(2*A24*A24)*10*0.5)</f>
         <v>662.51437251522862</v>
       </c>
     </row>
@@ -2533,7 +2534,7 @@
         <v>446.56</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>220.28583002030479</v>
       </c>
     </row>
@@ -2574,7 +2575,7 @@
         <v>741.19</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>232.07311754568582</v>
       </c>
     </row>
@@ -2595,7 +2596,7 @@
         <v>809.84</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>159.30176130837629</v>
       </c>
     </row>

--- a/Mesures.xlsx
+++ b/Mesures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="9780"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Precision" sheetId="1" r:id="rId1"/>
@@ -344,25 +344,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97624064"/>
-        <c:axId val="97625600"/>
+        <c:axId val="109062400"/>
+        <c:axId val="109076480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97624064"/>
+        <c:axId val="109062400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97625600"/>
+        <c:crossAx val="109076480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97625600"/>
+        <c:axId val="109076480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +370,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97624064"/>
+        <c:crossAx val="109062400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -383,7 +383,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -590,25 +590,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97650944"/>
-        <c:axId val="97660928"/>
+        <c:axId val="109105920"/>
+        <c:axId val="109107456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97650944"/>
+        <c:axId val="109105920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97660928"/>
+        <c:crossAx val="109107456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97660928"/>
+        <c:axId val="109107456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +616,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97650944"/>
+        <c:crossAx val="109105920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -629,7 +629,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -782,25 +782,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97690368"/>
-        <c:axId val="97691904"/>
+        <c:axId val="109136896"/>
+        <c:axId val="109138688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97690368"/>
+        <c:axId val="109136896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97691904"/>
+        <c:crossAx val="109138688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97691904"/>
+        <c:axId val="109138688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +808,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97690368"/>
+        <c:crossAx val="109136896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,7 +821,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -952,47 +952,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>662.51437251522862</c:v>
+                  <c:v>32.128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220.28583002030479</c:v>
+                  <c:v>33.488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>230</c:v>
+                  <c:v>31.844000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>232.07311754568582</c:v>
+                  <c:v>34.085000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159.30176130837629</c:v>
+                  <c:v>31.51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>33.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98372608"/>
-        <c:axId val="98378496"/>
+        <c:axId val="109176320"/>
+        <c:axId val="109177856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98372608"/>
+        <c:axId val="109176320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98378496"/>
+        <c:crossAx val="109177856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98378496"/>
+        <c:axId val="109177856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +1000,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98372608"/>
+        <c:crossAx val="109176320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1013,7 +1013,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1105,24 +1105,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="98423936"/>
-        <c:axId val="98425472"/>
+        <c:axId val="109276544"/>
+        <c:axId val="109298816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98423936"/>
+        <c:axId val="109276544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98425472"/>
+        <c:crossAx val="109298816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98425472"/>
+        <c:axId val="109298816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1130,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98423936"/>
+        <c:crossAx val="109276544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1142,7 +1142,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1242,24 +1242,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="98552832"/>
-        <c:axId val="98562816"/>
+        <c:axId val="110278144"/>
+        <c:axId val="110279680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98552832"/>
+        <c:axId val="110278144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98562816"/>
+        <c:crossAx val="110279680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98562816"/>
+        <c:axId val="110279680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1267,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98552832"/>
+        <c:crossAx val="110278144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1280,7 +1280,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1381,25 +1381,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="98612352"/>
-        <c:axId val="98613888"/>
+        <c:axId val="110329216"/>
+        <c:axId val="110339200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98612352"/>
+        <c:axId val="110329216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98613888"/>
+        <c:crossAx val="110339200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98613888"/>
+        <c:axId val="110339200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1407,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98612352"/>
+        <c:crossAx val="110329216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1420,7 +1420,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2119,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2510,11 +2510,11 @@
         <v>64.09</v>
       </c>
       <c r="E24">
-        <v>832.22</v>
+        <v>321.27999999999997</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F7:F28" si="2">MAX(0,E24-SQRT(2*A24*A24)*10*0.5)</f>
-        <v>662.51437251522862</v>
+        <f t="shared" ref="F24:F29" si="2">E24/10</f>
+        <v>32.128</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2531,11 +2531,11 @@
         <v>72.099999999999994</v>
       </c>
       <c r="E25">
-        <v>446.56</v>
+        <v>334.88</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>220.28583002030479</v>
+        <v>33.488</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2552,10 +2552,11 @@
         <v>97.26</v>
       </c>
       <c r="E26">
-        <v>441.26</v>
+        <v>318.44</v>
       </c>
       <c r="F26">
-        <v>230</v>
+        <f t="shared" si="2"/>
+        <v>31.844000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2572,11 +2573,11 @@
         <v>99.49</v>
       </c>
       <c r="E27">
-        <v>741.19</v>
+        <v>340.85</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>232.07311754568582</v>
+        <v>34.085000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2593,11 +2594,11 @@
         <v>100</v>
       </c>
       <c r="E28">
-        <v>809.84</v>
+        <v>315.10000000000002</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>159.30176130837629</v>
+        <v>31.51</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2614,10 +2615,11 @@
         <v>100</v>
       </c>
       <c r="E29">
-        <v>681.44</v>
+        <v>332.2</v>
       </c>
       <c r="F29">
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>33.22</v>
       </c>
     </row>
     <row r="37" spans="4:8">
@@ -2784,7 +2786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>

--- a/Mesures.xlsx
+++ b/Mesures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Precision" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Kinect Hands</c:v>
+            <c:v>Hand recognition system</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -344,25 +344,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109062400"/>
-        <c:axId val="109076480"/>
+        <c:axId val="79579008"/>
+        <c:axId val="79580544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109062400"/>
+        <c:axId val="79579008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109076480"/>
+        <c:crossAx val="79580544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109076480"/>
+        <c:axId val="79580544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +370,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109062400"/>
+        <c:crossAx val="79579008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -383,7 +383,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -465,7 +465,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Kinect Hands</c:v>
+            <c:v>Hand recognition system</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -590,25 +590,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109105920"/>
-        <c:axId val="109107456"/>
+        <c:axId val="79618432"/>
+        <c:axId val="79619968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109105920"/>
+        <c:axId val="79618432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109107456"/>
+        <c:crossAx val="79619968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109107456"/>
+        <c:axId val="79619968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +616,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109105920"/>
+        <c:crossAx val="79618432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -629,7 +629,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -711,7 +711,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Kinect Hands</c:v>
+            <c:v>Hand recognition system</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -782,25 +782,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109136896"/>
-        <c:axId val="109138688"/>
+        <c:axId val="80251520"/>
+        <c:axId val="80257408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109136896"/>
+        <c:axId val="80251520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109138688"/>
+        <c:crossAx val="80257408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109138688"/>
+        <c:axId val="80257408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +808,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109136896"/>
+        <c:crossAx val="80251520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,7 +821,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -903,7 +903,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Kinect Hands</c:v>
+            <c:v>Hand recognition system</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -974,25 +974,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109176320"/>
-        <c:axId val="109177856"/>
+        <c:axId val="80286848"/>
+        <c:axId val="80288384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109176320"/>
+        <c:axId val="80286848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109177856"/>
+        <c:crossAx val="80288384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109177856"/>
+        <c:axId val="80288384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +1000,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109176320"/>
+        <c:crossAx val="80286848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1013,7 +1013,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1105,24 +1105,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="109276544"/>
-        <c:axId val="109298816"/>
+        <c:axId val="80301056"/>
+        <c:axId val="80343808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109276544"/>
+        <c:axId val="80301056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109298816"/>
+        <c:crossAx val="80343808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109298816"/>
+        <c:axId val="80343808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1130,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109276544"/>
+        <c:crossAx val="80301056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1142,7 +1142,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1242,24 +1242,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="110278144"/>
-        <c:axId val="110279680"/>
+        <c:axId val="80401536"/>
+        <c:axId val="80403072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110278144"/>
+        <c:axId val="80401536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110279680"/>
+        <c:crossAx val="80403072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110279680"/>
+        <c:axId val="80403072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1267,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110278144"/>
+        <c:crossAx val="80401536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1280,7 +1280,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1381,25 +1381,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="110329216"/>
-        <c:axId val="110339200"/>
+        <c:axId val="80448512"/>
+        <c:axId val="80466688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110329216"/>
+        <c:axId val="80448512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110339200"/>
+        <c:crossAx val="80466688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110339200"/>
+        <c:axId val="80466688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1407,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110329216"/>
+        <c:crossAx val="80448512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1420,7 +1420,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2119,7 +2119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -2786,7 +2786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
